--- a/test/filter_edge_color/5/hough_image_grayscale_edge_threshold_accumulator.xlsx
+++ b/test/filter_edge_color/5/hough_image_grayscale_edge_threshold_accumulator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushn\projects\cv-workbench\test\filter_edge_color\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E497A97-7E73-48A6-B35F-3404D9CE008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C935BE-1F0B-4807-98B9-05656A5FF567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{664FBC2D-C56F-4DD1-88E6-D5F846481B97}"/>
+    <workbookView xWindow="-28740" yWindow="315" windowWidth="22050" windowHeight="15420" xr2:uid="{664FBC2D-C56F-4DD1-88E6-D5F846481B97}"/>
   </bookViews>
   <sheets>
     <sheet name="hough_image_grayscale_edge_thre" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +337,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -453,6 +459,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -498,8 +519,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -545,14 +568,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -562,7 +585,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -582,17 +605,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -928,12 +941,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B405A83-91C7-44D2-8620-40001C8EA9CD}">
   <dimension ref="A1:CW61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="885" ySplit="315" topLeftCell="AP1" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1080" ySplit="390" topLeftCell="AZ1" activePane="bottomRight"/>
       <selection activeCell="AQ2" sqref="AQ2"/>
-      <selection pane="topRight" activeCell="BE1" sqref="BE1"/>
+      <selection pane="topRight" activeCell="BW1" sqref="BW1"/>
       <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="AS18" sqref="AS18"/>
+      <selection pane="bottomRight" activeCell="BV16" sqref="BV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6730,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>54</v>
       </c>
@@ -7035,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>57</v>
       </c>
@@ -7237,7 +7250,7 @@
       <c r="BO21">
         <v>17605</v>
       </c>
-      <c r="BP21">
+      <c r="BP21" s="1">
         <v>31123</v>
       </c>
       <c r="BQ21">
@@ -7645,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>63</v>
       </c>
@@ -7950,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>66</v>
       </c>
@@ -8059,7 +8072,7 @@
       <c r="AJ24">
         <v>14036</v>
       </c>
-      <c r="AK24">
+      <c r="AK24" s="1">
         <v>32640</v>
       </c>
       <c r="AL24">
@@ -9170,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>78</v>
       </c>
@@ -9475,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>81</v>
       </c>
@@ -9572,7 +9585,7 @@
       <c r="AF29">
         <v>1797</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="1">
         <v>56615</v>
       </c>
       <c r="AH29">
@@ -9780,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>84</v>
       </c>
@@ -9910,7 +9923,7 @@
       <c r="AQ30">
         <v>16845</v>
       </c>
-      <c r="AR30">
+      <c r="AR30" s="1">
         <v>63497</v>
       </c>
       <c r="AS30">
@@ -10085,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>87</v>
       </c>
@@ -10257,7 +10270,7 @@
       <c r="BE31">
         <v>11742</v>
       </c>
-      <c r="BF31">
+      <c r="BF31" s="1">
         <v>33661</v>
       </c>
       <c r="BG31">
@@ -10390,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>90</v>
       </c>
@@ -10695,7 +10708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>93</v>
       </c>
@@ -10864,7 +10877,7 @@
       <c r="BD33">
         <v>3</v>
       </c>
-      <c r="BE33">
+      <c r="BE33" s="1">
         <v>44879</v>
       </c>
       <c r="BF33">
@@ -10876,7 +10889,7 @@
       <c r="BH33">
         <v>1280</v>
       </c>
-      <c r="BI33">
+      <c r="BI33" s="1">
         <v>39014</v>
       </c>
       <c r="BJ33">
@@ -11000,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>96</v>
       </c>
@@ -11305,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>99</v>
       </c>
@@ -11423,7 +11436,7 @@
       <c r="AM35">
         <v>9954</v>
       </c>
-      <c r="AN35">
+      <c r="AN35" s="1">
         <v>30351</v>
       </c>
       <c r="AO35">
@@ -11525,7 +11538,7 @@
       <c r="BU35">
         <v>5365</v>
       </c>
-      <c r="BV35">
+      <c r="BV35" s="1">
         <v>34171</v>
       </c>
       <c r="BW35">
@@ -12220,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>108</v>
       </c>
@@ -12525,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>111</v>
       </c>
@@ -12631,7 +12644,7 @@
       <c r="AI39">
         <v>19390</v>
       </c>
-      <c r="AJ39">
+      <c r="AJ39" s="2">
         <v>31881</v>
       </c>
       <c r="AK39">
@@ -14050,7 +14063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>126</v>
       </c>
@@ -14355,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>129</v>
       </c>
@@ -14509,7 +14522,7 @@
       <c r="AY45">
         <v>19648</v>
       </c>
-      <c r="AZ45">
+      <c r="AZ45" s="1">
         <v>38776</v>
       </c>
       <c r="BA45">
@@ -14660,7 +14673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>132</v>
       </c>
@@ -14965,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>135</v>
       </c>
@@ -15107,13 +15120,13 @@
       <c r="AU47">
         <v>21176</v>
       </c>
-      <c r="AV47">
+      <c r="AV47" s="1">
         <v>31377</v>
       </c>
       <c r="AW47">
         <v>28065</v>
       </c>
-      <c r="AX47">
+      <c r="AX47" s="1">
         <v>33668</v>
       </c>
       <c r="AY47">
@@ -15270,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>138</v>
       </c>
@@ -15575,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>141</v>
       </c>
@@ -15720,7 +15733,7 @@
       <c r="AV49">
         <v>24490</v>
       </c>
-      <c r="AW49">
+      <c r="AW49" s="1">
         <v>30610</v>
       </c>
       <c r="AX49">
@@ -16185,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>147</v>
       </c>
@@ -16490,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>150</v>
       </c>
@@ -16626,7 +16639,7 @@
       <c r="AS52">
         <v>32901</v>
       </c>
-      <c r="AT52">
+      <c r="AT52" s="1">
         <v>34439</v>
       </c>
       <c r="AU52">
@@ -17405,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>159</v>
       </c>
@@ -17710,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>162</v>
       </c>
@@ -17858,7 +17871,7 @@
       <c r="AW56">
         <v>21440</v>
       </c>
-      <c r="AX56">
+      <c r="AX56" s="1">
         <v>30099</v>
       </c>
       <c r="AY56">
@@ -19542,20 +19555,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:CW61">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
-      <formula>60000</formula>
-      <formula>50000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>60000</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>40000</formula>
+      <formula>30000</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>40000</formula>
       <formula>50000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
-      <formula>40000</formula>
-      <formula>30000</formula>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>60000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>60000</formula>
+      <formula>50000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
